--- a/kodofola.xlsx
+++ b/kodofola.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="type" sheetId="1" state="visible" r:id="rId3"/>
@@ -15,6 +15,12 @@
     <sheet name="language" sheetId="5" state="visible" r:id="rId7"/>
     <sheet name="image" sheetId="6" state="visible" r:id="rId8"/>
     <sheet name="sound" sheetId="7" state="visible" r:id="rId9"/>
+    <sheet name="nko" sheetId="8" state="visible" r:id="rId10"/>
+    <sheet name="word" sheetId="9" state="visible" r:id="rId11"/>
+    <sheet name="mot" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="example_nko" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="example_eng" sheetId="12" state="visible" r:id="rId14"/>
+    <sheet name="number" sheetId="13" state="visible" r:id="rId15"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -26,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -131,16 +137,288 @@
   </si>
   <si>
     <t xml:space="preserve">file_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">root</t>
+  </si>
+  <si>
+    <t xml:space="preserve">update</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load</t>
+  </si>
+  <si>
+    <t xml:space="preserve">synonime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">antonime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">definition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">french</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߟߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߟߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߟߊߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߊ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߦߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߡߊߦߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߝߊߤߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߕߊ߲ߞߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߖߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߓߌߟߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߓߌߟߊߟߌߟߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߓߏߟߏߞߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߙߊ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߙߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊߙߊߣߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߟߊߟߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊߦߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߌߓߐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߓߏ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߏߙߌߝߊߟߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߏߙߦ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߡߏߙߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߐߣߐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߐ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߘߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߜ߭ߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߕߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mouth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eyes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stomach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">palm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mustache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intestine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">death</t>
+  </si>
+  <si>
+    <t xml:space="preserve">earth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heaven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߊ ߌ ߡߊ ߕߊ߲ߞߊ ߌ ߡߊߜߊߛߎߓߊߟ ߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To protect you against your enemies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߁</t>
+  </si>
+  <si>
+    <t xml:space="preserve">١</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߂</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٢</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٣</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߄</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٤</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٥</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߆</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٦</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߈</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">٩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">߁߀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">١٠</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -161,11 +439,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -210,8 +483,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,11 +496,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -358,129 +635,129 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="A3" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
     </row>
@@ -491,6 +768,370 @@
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="25.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D30" s="4"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.66"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -526,29 +1167,29 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -577,24 +1218,24 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>2</v>
       </c>
     </row>
@@ -623,74 +1264,74 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -719,398 +1360,398 @@
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0" t="n">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="n">
         <f aca="false">+D2</f>
         <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="1" t="n">
         <f aca="false">+B3</f>
         <v>9</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <f aca="false">+D3</f>
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
+      <c r="B5" s="1" t="n">
         <f aca="false">+B4</f>
         <v>9</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <f aca="false">+D4</f>
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
+      <c r="B6" s="1" t="n">
         <f aca="false">+B5</f>
         <v>9</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="C6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <f aca="false">+D5</f>
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
+      <c r="B7" s="1" t="n">
         <f aca="false">+B6</f>
         <v>9</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="D7" s="1" t="n">
         <f aca="false">+D6</f>
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="1" t="n">
         <f aca="false">+B7</f>
         <v>9</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="C8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="D8" s="0" t="n">
+      <c r="D8" s="1" t="n">
         <f aca="false">+D7</f>
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
+      <c r="B9" s="1" t="n">
         <f aca="false">+B8</f>
         <v>9</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="C9" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <f aca="false">+D8</f>
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
         <f aca="false">+B9</f>
         <v>9</v>
       </c>
-      <c r="C10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D10" s="0" t="n">
+      <c r="C10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="n">
         <f aca="false">+D9</f>
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
+      <c r="B11" s="1" t="n">
         <f aca="false">+B10</f>
         <v>9</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="C11" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="D11" s="1" t="n">
         <f aca="false">+D10</f>
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+      <c r="A12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
+      <c r="B12" s="1" t="n">
         <f aca="false">+B11</f>
         <v>9</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="C12" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="D12" s="1" t="n">
         <f aca="false">+D11</f>
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
+      <c r="B13" s="1" t="n">
         <f aca="false">+B12</f>
         <v>9</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="C13" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="D13" s="1" t="n">
         <f aca="false">+D12</f>
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
+      <c r="B14" s="1" t="n">
         <f aca="false">+B13</f>
         <v>9</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="C14" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="D14" s="1" t="n">
         <f aca="false">+D13</f>
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="n">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
         <f aca="false">+B14</f>
         <v>9</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="D15" s="0" t="n">
+      <c r="C15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <f aca="false">+D14</f>
         <v>13</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="1" t="n">
         <f aca="false">+B15</f>
         <v>9</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="C16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="D16" s="1" t="n">
         <f aca="false">+D15</f>
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="1" t="n">
         <f aca="false">+B16</f>
         <v>9</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="C17" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <f aca="false">+D16</f>
         <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="1" t="n">
         <f aca="false">+B17</f>
         <v>9</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="C18" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="D18" s="1" t="n">
         <f aca="false">+D17</f>
         <v>13</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="1" t="n">
         <f aca="false">+B18</f>
         <v>9</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="C19" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <f aca="false">+D18</f>
         <v>13</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="1" t="n">
         <f aca="false">+B19</f>
         <v>9</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="C20" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="D20" s="1" t="n">
         <f aca="false">+D19</f>
         <v>13</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
+      <c r="B21" s="1" t="n">
         <f aca="false">+B20</f>
         <v>9</v>
       </c>
-      <c r="C21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="D21" s="0" t="n">
+      <c r="C21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" s="1" t="n">
         <v>12</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
+      <c r="B22" s="1" t="n">
         <f aca="false">+B21</f>
         <v>9</v>
       </c>
-      <c r="C22" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D22" s="0" t="n">
+      <c r="C22" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="n">
         <f aca="false">+D21</f>
         <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
+      <c r="B23" s="1" t="n">
         <f aca="false">+B22</f>
         <v>9</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="C23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="D23" s="1" t="n">
         <f aca="false">+D22</f>
         <v>12</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
+      <c r="B24" s="1" t="n">
         <f aca="false">+B23</f>
         <v>9</v>
       </c>
-      <c r="C24" s="0" t="n">
+      <c r="C24" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D24" s="0" t="n">
+      <c r="D24" s="1" t="n">
         <f aca="false">+D23</f>
         <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
+      <c r="B25" s="1" t="n">
         <f aca="false">+B24</f>
         <v>9</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C25" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="D25" s="1" t="n">
         <f aca="false">+D24</f>
         <v>12</v>
       </c>
@@ -1133,560 +1774,1258 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <f aca="false">+B2</f>
+        <v>14</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <f aca="false">1+D2</f>
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <f aca="false">+B3</f>
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <f aca="false">+C3</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <f aca="false">1+D3</f>
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <f aca="false">+B4</f>
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <f aca="false">+C4</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <f aca="false">1+D4</f>
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <f aca="false">+B5</f>
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <f aca="false">+C5</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <f aca="false">1+D5</f>
+        <v>5</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <f aca="false">+B6</f>
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <f aca="false">+C6</f>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <f aca="false">1+D6</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <f aca="false">+B7</f>
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <f aca="false">+C7</f>
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <f aca="false">1+D7</f>
+        <v>7</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <f aca="false">+B8</f>
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <f aca="false">+C8</f>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <f aca="false">+B9</f>
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <f aca="false">+C9</f>
+        <v>2</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <f aca="false">+1+D9</f>
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <f aca="false">+E9</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <f aca="false">+B10</f>
+        <v>14</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <f aca="false">+C10</f>
+        <v>2</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <f aca="false">+1+D10</f>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <f aca="false">+E10</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <f aca="false">+B11</f>
+        <v>14</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <f aca="false">+C11</f>
+        <v>2</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <f aca="false">+1+D11</f>
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <f aca="false">+E11</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <f aca="false">+B12</f>
+        <v>14</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <f aca="false">+C12</f>
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <f aca="false">+1+D12</f>
+        <v>5</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <f aca="false">+E12</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <f aca="false">+B13</f>
+        <v>14</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <f aca="false">+C13</f>
+        <v>2</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <f aca="false">+1+D13</f>
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <f aca="false">+E13</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <f aca="false">+B14</f>
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <f aca="false">+C14</f>
+        <v>2</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <f aca="false">+1+D14</f>
+        <v>7</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <f aca="false">+E14</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <f aca="false">+B15</f>
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <f aca="false">+C15</f>
+        <v>2</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <f aca="false">+1+D15</f>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <f aca="false">+E15</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <f aca="false">+B16</f>
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <f aca="false">+C16</f>
+        <v>2</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <f aca="false">+1+D16</f>
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <f aca="false">+E16</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <f aca="false">+B17</f>
+        <v>14</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <f aca="false">+C17</f>
+        <v>2</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <f aca="false">+1+D17</f>
+        <v>10</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <f aca="false">+E17</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <f aca="false">+B18</f>
+        <v>14</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <f aca="false">+C18</f>
+        <v>2</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <f aca="false">+1+D18</f>
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <f aca="false">+E18</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <f aca="false">+B19</f>
+        <v>14</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <f aca="false">+C19</f>
+        <v>2</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <f aca="false">+1+D19</f>
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <f aca="false">+E19</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <f aca="false">+B20</f>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <f aca="false">+C20</f>
+        <v>2</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <f aca="false">+1+D20</f>
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <f aca="false">+E20</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <f aca="false">+B21</f>
+        <v>14</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <f aca="false">+C21</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="1" t="n">
+        <f aca="false">+1+D21</f>
+        <v>14</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <f aca="false">+E21</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <f aca="false">+B22</f>
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <f aca="false">+C22</f>
+        <v>2</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <f aca="false">+1+D22</f>
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <f aca="false">+E22</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <f aca="false">+B23</f>
+        <v>14</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <f aca="false">+C23</f>
+        <v>2</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <f aca="false">+1+D23</f>
+        <v>16</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <f aca="false">+E23</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <f aca="false">+B24</f>
+        <v>14</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <f aca="false">+C24</f>
+        <v>2</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <f aca="false">+1+D24</f>
+        <v>17</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <f aca="false">+E24</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <f aca="false">+B25</f>
+        <v>14</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <f aca="false">+C25</f>
+        <v>2</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <f aca="false">+1+D25</f>
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <f aca="false">+E25</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <f aca="false">+B26</f>
+        <v>14</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <f aca="false">+C26</f>
+        <v>2</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <f aca="false">+1+D26</f>
+        <v>19</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <f aca="false">+E26</f>
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:M34"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>31</v>
+      <c r="F1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="0" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>10</v>
+      <c r="B2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <f aca="false">+B2</f>
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <f aca="false">1+D2</f>
-        <v>2</v>
-      </c>
-      <c r="E3" s="0" t="n">
-        <v>10</v>
+      <c r="B3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <f aca="false">+B3</f>
-        <v>14</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <f aca="false">+C3</f>
-        <v>2</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <f aca="false">1+D3</f>
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>10</v>
+      <c r="B4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <f aca="false">+B4</f>
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <f aca="false">+C4</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <f aca="false">1+D4</f>
-        <v>4</v>
-      </c>
-      <c r="E5" s="0" t="n">
-        <v>10</v>
+      <c r="B5" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <f aca="false">+B5</f>
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <f aca="false">+C5</f>
-        <v>2</v>
+      <c r="B6" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="0" t="n">
-        <f aca="false">1+D5</f>
-        <v>5</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <f aca="false">+B6</f>
-        <v>14</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <f aca="false">+C6</f>
-        <v>2</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <f aca="false">1+D6</f>
-        <v>6</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>10</v>
+      <c r="B7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="0" t="n">
-        <f aca="false">+B7</f>
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <f aca="false">+C7</f>
-        <v>2</v>
+      <c r="B8" s="0" t="s">
+        <v>52</v>
       </c>
       <c r="D8" s="0" t="n">
-        <f aca="false">1+D7</f>
-        <v>7</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="F8" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="0" t="n">
-        <f aca="false">+B8</f>
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <f aca="false">+C8</f>
-        <v>2</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>11</v>
+      <c r="B9" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="0" t="n">
-        <f aca="false">+B9</f>
-        <v>14</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <f aca="false">+C9</f>
-        <v>2</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <f aca="false">+1+D9</f>
-        <v>2</v>
-      </c>
-      <c r="E10" s="0" t="n">
-        <f aca="false">+E9</f>
-        <v>11</v>
+      <c r="B10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="0" t="n">
-        <f aca="false">+B10</f>
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <f aca="false">+C10</f>
-        <v>2</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <f aca="false">+1+D10</f>
-        <v>3</v>
+      <c r="B11" s="0" t="s">
+        <v>55</v>
       </c>
       <c r="E11" s="0" t="n">
-        <f aca="false">+E10</f>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="0" t="n">
-        <f aca="false">+B11</f>
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <f aca="false">+C11</f>
-        <v>2</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <f aca="false">+1+D11</f>
-        <v>4</v>
+      <c r="B12" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="E12" s="0" t="n">
-        <f aca="false">+E11</f>
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="0" t="n">
-        <f aca="false">+B12</f>
-        <v>14</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <f aca="false">+C12</f>
-        <v>2</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <f aca="false">+1+D12</f>
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <f aca="false">+E12</f>
-        <v>11</v>
+      <c r="B13" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="0" t="n">
-        <f aca="false">+B13</f>
-        <v>14</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <f aca="false">+C13</f>
-        <v>2</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <f aca="false">+1+D13</f>
-        <v>6</v>
-      </c>
-      <c r="E14" s="0" t="n">
-        <f aca="false">+E13</f>
-        <v>11</v>
+      <c r="B14" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="0" t="n">
-        <f aca="false">+B14</f>
-        <v>14</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <f aca="false">+C14</f>
-        <v>2</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <f aca="false">+1+D14</f>
-        <v>7</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <f aca="false">+E14</f>
-        <v>11</v>
+      <c r="B15" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="G15" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="0" t="n">
-        <f aca="false">+B15</f>
-        <v>14</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <f aca="false">+C15</f>
-        <v>2</v>
-      </c>
-      <c r="D16" s="0" t="n">
-        <f aca="false">+1+D15</f>
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="n">
-        <f aca="false">+E15</f>
-        <v>11</v>
+      <c r="B16" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <f aca="false">+B16</f>
-        <v>14</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <f aca="false">+C16</f>
-        <v>2</v>
-      </c>
-      <c r="D17" s="0" t="n">
-        <f aca="false">+1+D16</f>
-        <v>9</v>
-      </c>
-      <c r="E17" s="0" t="n">
-        <f aca="false">+E16</f>
-        <v>11</v>
+      <c r="B17" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="0" t="n">
-        <f aca="false">+B17</f>
-        <v>14</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <f aca="false">+C17</f>
-        <v>2</v>
-      </c>
-      <c r="D18" s="0" t="n">
-        <f aca="false">+1+D17</f>
-        <v>10</v>
-      </c>
-      <c r="E18" s="0" t="n">
-        <f aca="false">+E17</f>
-        <v>11</v>
+      <c r="B18" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G18" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="0" t="n">
-        <f aca="false">+B18</f>
-        <v>14</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <f aca="false">+C18</f>
-        <v>2</v>
-      </c>
-      <c r="D19" s="0" t="n">
-        <f aca="false">+1+D18</f>
-        <v>11</v>
-      </c>
-      <c r="E19" s="0" t="n">
-        <f aca="false">+E18</f>
-        <v>11</v>
+      <c r="B19" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="0" t="n">
-        <f aca="false">+B19</f>
-        <v>14</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <f aca="false">+C19</f>
-        <v>2</v>
-      </c>
-      <c r="D20" s="0" t="n">
-        <f aca="false">+1+D19</f>
-        <v>12</v>
-      </c>
-      <c r="E20" s="0" t="n">
-        <f aca="false">+E19</f>
-        <v>11</v>
+      <c r="B20" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="G20" s="3" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="0" t="n">
-        <f aca="false">+B20</f>
-        <v>14</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <f aca="false">+C20</f>
-        <v>2</v>
-      </c>
-      <c r="D21" s="0" t="n">
-        <f aca="false">+1+D20</f>
-        <v>13</v>
-      </c>
-      <c r="E21" s="0" t="n">
-        <f aca="false">+E20</f>
-        <v>11</v>
+      <c r="B21" s="0" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="0" t="n">
-        <f aca="false">+B21</f>
-        <v>14</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <f aca="false">+C21</f>
-        <v>2</v>
-      </c>
-      <c r="D22" s="0" t="n">
-        <f aca="false">+1+D21</f>
-        <v>14</v>
-      </c>
-      <c r="E22" s="0" t="n">
-        <f aca="false">+E21</f>
-        <v>11</v>
+      <c r="B22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="0" t="n">
-        <f aca="false">+B22</f>
-        <v>14</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <f aca="false">+C22</f>
-        <v>2</v>
+      <c r="B23" s="0" t="s">
+        <v>67</v>
       </c>
       <c r="D23" s="0" t="n">
-        <f aca="false">+1+D22</f>
-        <v>15</v>
-      </c>
-      <c r="E23" s="0" t="n">
-        <f aca="false">+E22</f>
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="0" t="n">
-        <f aca="false">+B23</f>
-        <v>14</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <f aca="false">+C23</f>
-        <v>2</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <f aca="false">+1+D23</f>
-        <v>16</v>
-      </c>
-      <c r="E24" s="0" t="n">
-        <f aca="false">+E23</f>
-        <v>11</v>
+      <c r="B24" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="0" t="n">
-        <f aca="false">+B24</f>
-        <v>14</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <f aca="false">+C24</f>
-        <v>2</v>
-      </c>
-      <c r="D25" s="0" t="n">
-        <f aca="false">+1+D24</f>
-        <v>17</v>
-      </c>
-      <c r="E25" s="0" t="n">
-        <f aca="false">+E24</f>
-        <v>11</v>
+      <c r="B25" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="0" t="n">
-        <f aca="false">+B25</f>
-        <v>14</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <f aca="false">+C25</f>
-        <v>2</v>
+      <c r="B26" s="0" t="s">
+        <v>70</v>
       </c>
       <c r="D26" s="0" t="n">
-        <f aca="false">+1+D25</f>
-        <v>18</v>
-      </c>
-      <c r="E26" s="0" t="n">
-        <f aca="false">+E25</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="0" t="n">
-        <f aca="false">+B26</f>
-        <v>14</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <f aca="false">+C26</f>
-        <v>2</v>
-      </c>
-      <c r="D27" s="0" t="n">
-        <f aca="false">+1+D26</f>
+      <c r="B27" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="K32" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <f aca="false">+E26</f>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="I34" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
         <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/kodofola.xlsx
+++ b/kodofola.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="127">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t xml:space="preserve">ߕߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߕߊߡߊ ߥߊߙߊ ߟߎߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߞߎ߲ߘߐ ߦߋ ߊߡߋߙߌߗߊ</t>
   </si>
   <si>
     <t xml:space="preserve">kill</t>
@@ -817,7 +823,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>38</v>
@@ -837,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -957,7 +963,7 @@
         <v>35</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>38</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1009,7 +1015,7 @@
         <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C1" s="0" t="s">
         <v>44</v>
@@ -1017,112 +1023,112 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2346,13 +2352,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M34"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.81"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -2792,6 +2801,22 @@
       </c>
       <c r="K34" s="0" t="n">
         <v>21</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2843,7 +2868,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>1</v>
@@ -2857,7 +2882,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2865,7 +2890,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2873,7 +2898,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2881,7 +2906,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2889,7 +2914,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2897,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2905,7 +2930,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2913,7 +2938,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2921,7 +2946,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2929,7 +2954,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2937,7 +2962,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2945,7 +2970,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2953,7 +2978,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2961,7 +2986,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2969,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2977,7 +3002,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2985,7 +3010,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2993,7 +3018,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3001,7 +3026,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3009,7 +3034,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3017,7 +3042,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3025,7 +3050,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/kodofola.xlsx
+++ b/kodofola.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="852">
   <si>
     <t xml:space="preserve">sku</t>
   </si>
@@ -1393,6 +1393,60 @@
     <t xml:space="preserve">ߛߎ߲</t>
   </si>
   <si>
+    <t xml:space="preserve">ߣߊߟߏߡߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߊߟߏߡߊߦߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߊߟߏߟߐ߲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߊߟߍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߊߦߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߣߊߣߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߓߊߜ߭ߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊߜ߭ߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߛߊߣߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߗߎߙߕߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߟߊߕߍ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߘߎߜߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߘߎߥߊߥߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߊߡߌߣߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߊߡߌߣߊߕߊ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߊߙߌ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߘߊߞߎ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ߦߊߗߎ</t>
+  </si>
+  <si>
     <t xml:space="preserve">kill</t>
   </si>
   <si>
@@ -2456,6 +2510,9 @@
   </si>
   <si>
     <t xml:space="preserve">wind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iguana</t>
   </si>
   <si>
     <t xml:space="preserve">ordinal</t>
@@ -2943,8 +3000,8 @@
   </sheetPr>
   <dimension ref="A1:F387"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B386" activeCellId="0" sqref="B386"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A363" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B391" activeCellId="0" sqref="B391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2974,7 +3031,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>453</v>
+        <v>471</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>1</v>
@@ -2989,7 +3046,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>454</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2997,7 +3054,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>455</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3005,7 +3062,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>456</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3013,7 +3070,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>457</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3021,7 +3078,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>458</v>
+        <v>476</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3029,7 +3086,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>459</v>
+        <v>477</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3037,7 +3094,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3045,7 +3102,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,7 +3110,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>462</v>
+        <v>480</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3061,7 +3118,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>463</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3069,7 +3126,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>464</v>
+        <v>482</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3077,7 +3134,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>465</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3085,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>466</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3093,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3101,7 +3158,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3109,7 +3166,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3117,7 +3174,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3125,7 +3182,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3133,7 +3190,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3141,7 +3198,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3149,7 +3206,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,7 +3214,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3165,7 +3222,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3173,7 +3230,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3181,7 +3238,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3189,7 +3246,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>478</v>
+        <v>496</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3197,7 +3254,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>479</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,7 +3262,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>480</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,7 +3270,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>481</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3221,7 +3278,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3229,7 +3286,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>483</v>
+        <v>501</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3237,7 +3294,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>484</v>
+        <v>502</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3245,7 +3302,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3253,7 +3310,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>486</v>
+        <v>504</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3261,7 +3318,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>487</v>
+        <v>505</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,7 +3326,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>488</v>
+        <v>506</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,7 +3334,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>489</v>
+        <v>507</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3285,7 +3342,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>490</v>
+        <v>508</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,7 +3350,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3301,7 +3358,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3309,7 +3366,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3374,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,7 +3382,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3333,7 +3390,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3341,7 +3398,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3349,7 +3406,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3357,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3365,7 +3422,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3373,7 +3430,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,7 +3438,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>502</v>
+        <v>520</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3389,7 +3446,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>503</v>
+        <v>521</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3397,7 +3454,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>504</v>
+        <v>522</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3405,7 +3462,7 @@
         <v>53</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>505</v>
+        <v>523</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3413,7 +3470,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3421,7 +3478,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>507</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3429,7 +3486,7 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3437,7 +3494,7 @@
         <v>57</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>509</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3502,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>510</v>
+        <v>528</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3453,7 +3510,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>511</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,7 +3518,7 @@
         <v>60</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3469,7 +3526,7 @@
         <v>61</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>513</v>
+        <v>531</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3477,7 +3534,7 @@
         <v>62</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3485,7 +3542,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>514</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3493,7 +3550,7 @@
         <v>64</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>515</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3501,7 +3558,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>516</v>
+        <v>534</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3509,7 +3566,7 @@
         <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>517</v>
+        <v>535</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,7 +3574,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3525,7 +3582,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>519</v>
+        <v>537</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3533,7 +3590,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>461</v>
+        <v>479</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3541,7 +3598,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>520</v>
+        <v>538</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3549,7 +3606,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>521</v>
+        <v>539</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3557,7 +3614,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>522</v>
+        <v>540</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3565,7 +3622,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>523</v>
+        <v>541</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3573,7 +3630,7 @@
         <v>74</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>524</v>
+        <v>542</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3581,7 +3638,7 @@
         <v>75</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>525</v>
+        <v>543</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3589,7 +3646,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3654,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>527</v>
+        <v>545</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,7 +3662,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>528</v>
+        <v>546</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3613,7 +3670,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>529</v>
+        <v>547</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3621,7 +3678,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>530</v>
+        <v>548</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3629,7 +3686,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>531</v>
+        <v>549</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3637,7 +3694,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>532</v>
+        <v>550</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3645,7 +3702,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>533</v>
+        <v>551</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3653,7 +3710,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>534</v>
+        <v>552</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3661,7 +3718,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>535</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3669,7 +3726,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>468</v>
+        <v>486</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3677,7 +3734,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3685,7 +3742,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3693,7 +3750,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>537</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3701,7 +3758,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>538</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3709,7 +3766,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>539</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3717,7 +3774,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>540</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3725,7 +3782,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>541</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3733,7 +3790,7 @@
         <v>94</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>542</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3741,7 +3798,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>543</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3749,7 +3806,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>544</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,7 +3814,7 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>545</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3765,7 +3822,7 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>546</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3773,7 +3830,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>547</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3781,10 +3838,10 @@
         <v>100</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>548</v>
+        <v>566</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>549</v>
+        <v>567</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3792,7 +3849,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3800,7 +3857,7 @@
         <v>102</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>551</v>
+        <v>569</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,7 +3865,7 @@
         <v>103</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>552</v>
+        <v>570</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3816,7 +3873,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>553</v>
+        <v>571</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3824,7 +3881,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>554</v>
+        <v>572</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3832,7 +3889,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>555</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3840,7 +3897,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3848,7 +3905,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>557</v>
+        <v>575</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3856,7 +3913,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>558</v>
+        <v>576</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3864,7 +3921,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>559</v>
+        <v>577</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3872,7 +3929,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>526</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3880,7 +3937,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>560</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3888,7 +3945,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>561</v>
+        <v>579</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3896,7 +3953,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>562</v>
+        <v>580</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3904,7 +3961,7 @@
         <v>115</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>563</v>
+        <v>581</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +3969,7 @@
         <v>116</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>564</v>
+        <v>582</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,7 +3977,7 @@
         <v>117</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>565</v>
+        <v>583</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,7 +3985,7 @@
         <v>118</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>566</v>
+        <v>584</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3936,7 +3993,7 @@
         <v>119</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>567</v>
+        <v>585</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3944,7 +4001,7 @@
         <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3952,7 +4009,7 @@
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>568</v>
+        <v>586</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,7 +4017,7 @@
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>569</v>
+        <v>587</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3968,7 +4025,7 @@
         <v>123</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>570</v>
+        <v>588</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3976,7 +4033,7 @@
         <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3992,7 +4049,7 @@
         <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4000,7 +4057,7 @@
         <v>127</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>573</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4008,7 +4065,7 @@
         <v>128</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4016,7 +4073,7 @@
         <v>129</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4024,7 +4081,7 @@
         <v>130</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>576</v>
+        <v>594</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4032,7 +4089,7 @@
         <v>131</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>577</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4040,7 +4097,7 @@
         <v>132</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4048,7 +4105,7 @@
         <v>133</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>579</v>
+        <v>597</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4056,7 +4113,7 @@
         <v>134</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4064,7 +4121,7 @@
         <v>135</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4072,7 +4129,7 @@
         <v>136</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4080,7 +4137,7 @@
         <v>137</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>583</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4088,7 +4145,7 @@
         <v>138</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>584</v>
+        <v>602</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4096,7 +4153,7 @@
         <v>139</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,7 +4161,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>586</v>
+        <v>604</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4112,7 +4169,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4120,7 +4177,7 @@
         <v>142</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>588</v>
+        <v>606</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,7 +4185,7 @@
         <v>143</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>589</v>
+        <v>607</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4136,7 +4193,7 @@
         <v>144</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>590</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4144,7 +4201,7 @@
         <v>145</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>591</v>
+        <v>609</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4152,7 +4209,7 @@
         <v>146</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>592</v>
+        <v>610</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4160,7 +4217,7 @@
         <v>147</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,7 +4225,7 @@
         <v>148</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>594</v>
+        <v>612</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4176,7 +4233,7 @@
         <v>149</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>595</v>
+        <v>613</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4184,7 +4241,7 @@
         <v>150</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>596</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4249,7 @@
         <v>151</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>597</v>
+        <v>615</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4200,7 +4257,7 @@
         <v>152</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>598</v>
+        <v>616</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,7 +4265,7 @@
         <v>153</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4216,7 +4273,7 @@
         <v>154</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>599</v>
+        <v>617</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4224,7 +4281,7 @@
         <v>155</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>600</v>
+        <v>618</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4232,7 +4289,7 @@
         <v>156</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>601</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4240,7 +4297,7 @@
         <v>157</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>602</v>
+        <v>620</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4248,7 +4305,7 @@
         <v>158</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>603</v>
+        <v>621</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4256,7 +4313,7 @@
         <v>159</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>604</v>
+        <v>622</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4264,7 +4321,7 @@
         <v>160</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4272,7 +4329,7 @@
         <v>161</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4280,7 +4337,7 @@
         <v>162</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>607</v>
+        <v>625</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4288,7 +4345,7 @@
         <v>163</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4296,7 +4353,7 @@
         <v>164</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4304,7 +4361,7 @@
         <v>165</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>610</v>
+        <v>628</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4312,7 +4369,7 @@
         <v>166</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>609</v>
+        <v>627</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4320,7 +4377,7 @@
         <v>167</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>611</v>
+        <v>629</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,7 +4385,7 @@
         <v>168</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>612</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4336,7 +4393,7 @@
         <v>169</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>613</v>
+        <v>631</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4344,7 +4401,7 @@
         <v>170</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>614</v>
+        <v>632</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4352,7 +4409,7 @@
         <v>171</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>615</v>
+        <v>633</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4360,7 +4417,7 @@
         <v>172</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>616</v>
+        <v>634</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4368,7 +4425,7 @@
         <v>173</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>617</v>
+        <v>635</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +4433,7 @@
         <v>174</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>618</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4384,7 +4441,7 @@
         <v>175</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>619</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4392,7 +4449,7 @@
         <v>176</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>620</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4400,7 +4457,7 @@
         <v>177</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>621</v>
+        <v>639</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4408,7 +4465,7 @@
         <v>178</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>622</v>
+        <v>640</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4416,7 +4473,7 @@
         <v>179</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>623</v>
+        <v>641</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4424,7 +4481,7 @@
         <v>180</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>624</v>
+        <v>642</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4432,7 +4489,7 @@
         <v>181</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>625</v>
+        <v>643</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4440,7 +4497,7 @@
         <v>182</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>626</v>
+        <v>644</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4448,7 +4505,7 @@
         <v>183</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>627</v>
+        <v>645</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4456,7 +4513,7 @@
         <v>184</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>628</v>
+        <v>646</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4464,7 +4521,7 @@
         <v>185</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>629</v>
+        <v>647</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4529,7 @@
         <v>186</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>630</v>
+        <v>648</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4480,7 +4537,7 @@
         <v>187</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>631</v>
+        <v>649</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4488,7 +4545,7 @@
         <v>188</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>632</v>
+        <v>650</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4496,7 +4553,7 @@
         <v>189</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>633</v>
+        <v>651</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4504,7 +4561,7 @@
         <v>190</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4512,7 +4569,7 @@
         <v>191</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4520,7 +4577,7 @@
         <v>192</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4528,7 +4585,7 @@
         <v>193</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4536,7 +4593,7 @@
         <v>194</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4544,7 +4601,7 @@
         <v>195</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4552,7 +4609,7 @@
         <v>196</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4560,7 +4617,7 @@
         <v>197</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4568,7 +4625,7 @@
         <v>198</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,7 +4633,7 @@
         <v>199</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4584,7 +4641,7 @@
         <v>200</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4592,7 +4649,7 @@
         <v>201</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4600,7 +4657,7 @@
         <v>202</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4608,7 +4665,7 @@
         <v>203</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4616,7 +4673,7 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4624,7 +4681,7 @@
         <v>205</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4632,7 +4689,7 @@
         <v>206</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4640,7 +4697,7 @@
         <v>207</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>650</v>
+        <v>668</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4648,7 +4705,7 @@
         <v>208</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4656,7 +4713,7 @@
         <v>209</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4672,7 +4729,7 @@
         <v>211</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>653</v>
+        <v>671</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4680,7 +4737,7 @@
         <v>212</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>654</v>
+        <v>672</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,7 +4745,7 @@
         <v>213</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>655</v>
+        <v>673</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4696,7 +4753,7 @@
         <v>214</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4704,7 +4761,7 @@
         <v>215</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>657</v>
+        <v>675</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4712,7 +4769,7 @@
         <v>216</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>658</v>
+        <v>676</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4720,7 +4777,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>659</v>
+        <v>677</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,7 +4785,7 @@
         <v>218</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>660</v>
+        <v>678</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,7 +4793,7 @@
         <v>219</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4744,7 +4801,7 @@
         <v>220</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4809,7 @@
         <v>221</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4760,7 +4817,7 @@
         <v>222</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4768,7 +4825,7 @@
         <v>223</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4776,7 +4833,7 @@
         <v>224</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4784,7 +4841,7 @@
         <v>225</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>667</v>
+        <v>685</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4792,7 +4849,7 @@
         <v>226</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4800,7 +4857,7 @@
         <v>227</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>669</v>
+        <v>687</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4808,7 +4865,7 @@
         <v>228</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>670</v>
+        <v>688</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4816,7 +4873,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>671</v>
+        <v>689</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,7 +4889,7 @@
         <v>231</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>672</v>
+        <v>690</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4840,7 +4897,7 @@
         <v>232</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>673</v>
+        <v>691</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4848,7 +4905,7 @@
         <v>233</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>674</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4856,7 +4913,7 @@
         <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>675</v>
+        <v>693</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4864,7 +4921,7 @@
         <v>235</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>676</v>
+        <v>694</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4880,7 +4937,7 @@
         <v>237</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>677</v>
+        <v>695</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4904,7 +4961,7 @@
         <v>240</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>678</v>
+        <v>696</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4912,7 +4969,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>679</v>
+        <v>697</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4920,7 +4977,7 @@
         <v>242</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>680</v>
+        <v>698</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4928,7 +4985,7 @@
         <v>243</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>681</v>
+        <v>699</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4936,7 +4993,7 @@
         <v>244</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>682</v>
+        <v>700</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4944,7 +5001,7 @@
         <v>245</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>683</v>
+        <v>701</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4952,7 +5009,7 @@
         <v>246</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>684</v>
+        <v>702</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4968,7 +5025,7 @@
         <v>248</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>685</v>
+        <v>703</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4976,7 +5033,7 @@
         <v>249</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>686</v>
+        <v>704</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4984,7 +5041,7 @@
         <v>250</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5000,7 +5057,7 @@
         <v>252</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5016,7 +5073,7 @@
         <v>254</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>689</v>
+        <v>707</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5024,7 +5081,7 @@
         <v>255</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>690</v>
+        <v>708</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +5089,7 @@
         <v>256</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>691</v>
+        <v>709</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5040,7 +5097,7 @@
         <v>257</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>692</v>
+        <v>710</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5048,7 +5105,7 @@
         <v>258</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>693</v>
+        <v>711</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5056,7 +5113,7 @@
         <v>259</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>694</v>
+        <v>712</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5064,7 +5121,7 @@
         <v>260</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>695</v>
+        <v>713</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5072,7 +5129,7 @@
         <v>261</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>696</v>
+        <v>714</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5080,7 +5137,7 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>697</v>
+        <v>715</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5088,7 +5145,7 @@
         <v>263</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>698</v>
+        <v>716</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5096,7 +5153,7 @@
         <v>264</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>699</v>
+        <v>717</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5104,7 +5161,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>700</v>
+        <v>718</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5112,7 +5169,7 @@
         <v>266</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>701</v>
+        <v>719</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5120,7 +5177,7 @@
         <v>267</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>702</v>
+        <v>720</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5128,7 +5185,7 @@
         <v>268</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>703</v>
+        <v>721</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5136,7 +5193,7 @@
         <v>269</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>704</v>
+        <v>722</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,7 +5201,7 @@
         <v>270</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>705</v>
+        <v>723</v>
       </c>
     </row>
     <row r="273" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5152,7 +5209,7 @@
         <v>271</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>706</v>
+        <v>724</v>
       </c>
     </row>
     <row r="274" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5160,7 +5217,7 @@
         <v>272</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
     </row>
     <row r="275" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5168,7 +5225,7 @@
         <v>273</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>708</v>
+        <v>726</v>
       </c>
     </row>
     <row r="276" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5176,7 +5233,7 @@
         <v>274</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>709</v>
+        <v>727</v>
       </c>
     </row>
     <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5184,7 +5241,7 @@
         <v>275</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="278" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5192,7 +5249,7 @@
         <v>276</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>593</v>
+        <v>611</v>
       </c>
     </row>
     <row r="279" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5200,7 +5257,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>710</v>
+        <v>728</v>
       </c>
     </row>
     <row r="280" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5208,7 +5265,7 @@
         <v>278</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>711</v>
+        <v>729</v>
       </c>
     </row>
     <row r="281" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5216,7 +5273,7 @@
         <v>279</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>712</v>
+        <v>730</v>
       </c>
     </row>
     <row r="282" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5224,7 +5281,7 @@
         <v>280</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>713</v>
+        <v>731</v>
       </c>
     </row>
     <row r="283" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5232,7 +5289,7 @@
         <v>281</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>714</v>
+        <v>732</v>
       </c>
     </row>
     <row r="284" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5240,7 +5297,7 @@
         <v>282</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>715</v>
+        <v>733</v>
       </c>
     </row>
     <row r="285" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5248,7 +5305,7 @@
         <v>283</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>716</v>
+        <v>734</v>
       </c>
     </row>
     <row r="286" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5256,7 +5313,7 @@
         <v>284</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>717</v>
+        <v>735</v>
       </c>
     </row>
     <row r="287" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5264,7 +5321,7 @@
         <v>285</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>718</v>
+        <v>736</v>
       </c>
     </row>
     <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5272,7 +5329,7 @@
         <v>286</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>719</v>
+        <v>737</v>
       </c>
     </row>
     <row r="289" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5280,7 +5337,7 @@
         <v>287</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>720</v>
+        <v>738</v>
       </c>
     </row>
     <row r="290" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5288,7 +5345,7 @@
         <v>288</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>721</v>
+        <v>739</v>
       </c>
     </row>
     <row r="291" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5296,7 +5353,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>722</v>
+        <v>740</v>
       </c>
     </row>
     <row r="292" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5304,7 +5361,7 @@
         <v>290</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>723</v>
+        <v>741</v>
       </c>
     </row>
     <row r="293" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5369,7 @@
         <v>291</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>724</v>
+        <v>742</v>
       </c>
     </row>
     <row r="294" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5320,7 +5377,7 @@
         <v>292</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>725</v>
+        <v>743</v>
       </c>
     </row>
     <row r="295" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5328,7 +5385,7 @@
         <v>293</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>726</v>
+        <v>744</v>
       </c>
     </row>
     <row r="296" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5336,7 +5393,7 @@
         <v>294</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>608</v>
+        <v>626</v>
       </c>
     </row>
     <row r="297" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,7 +5401,7 @@
         <v>295</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>727</v>
+        <v>745</v>
       </c>
     </row>
     <row r="298" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5352,7 +5409,7 @@
         <v>296</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>728</v>
+        <v>746</v>
       </c>
     </row>
     <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5360,7 +5417,7 @@
         <v>297</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="300" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5368,7 +5425,7 @@
         <v>298</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>730</v>
+        <v>748</v>
       </c>
     </row>
     <row r="301" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5376,7 +5433,7 @@
         <v>299</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>731</v>
+        <v>749</v>
       </c>
     </row>
     <row r="302" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5384,7 +5441,7 @@
         <v>300</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>732</v>
+        <v>750</v>
       </c>
     </row>
     <row r="303" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5392,7 +5449,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>733</v>
+        <v>751</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5400,7 +5457,7 @@
         <v>302</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>734</v>
+        <v>752</v>
       </c>
     </row>
     <row r="305" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5408,7 +5465,7 @@
         <v>303</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>735</v>
+        <v>753</v>
       </c>
     </row>
     <row r="306" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5416,7 +5473,7 @@
         <v>304</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>736</v>
+        <v>754</v>
       </c>
     </row>
     <row r="307" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5424,7 +5481,7 @@
         <v>305</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="308" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5432,7 +5489,7 @@
         <v>306</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>737</v>
+        <v>755</v>
       </c>
     </row>
     <row r="309" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5440,7 +5497,7 @@
         <v>307</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>738</v>
+        <v>756</v>
       </c>
     </row>
     <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5448,7 +5505,7 @@
         <v>308</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>739</v>
+        <v>757</v>
       </c>
     </row>
     <row r="311" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5456,7 +5513,7 @@
         <v>309</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>740</v>
+        <v>758</v>
       </c>
     </row>
     <row r="312" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5464,7 +5521,7 @@
         <v>310</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>741</v>
+        <v>759</v>
       </c>
     </row>
     <row r="313" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5472,7 +5529,7 @@
         <v>311</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>742</v>
+        <v>760</v>
       </c>
     </row>
     <row r="314" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5480,7 +5537,7 @@
         <v>312</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>743</v>
+        <v>761</v>
       </c>
     </row>
     <row r="315" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5488,7 +5545,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>744</v>
+        <v>762</v>
       </c>
     </row>
     <row r="316" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5496,7 +5553,7 @@
         <v>314</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>745</v>
+        <v>763</v>
       </c>
     </row>
     <row r="317" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5504,7 +5561,7 @@
         <v>315</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>746</v>
+        <v>764</v>
       </c>
     </row>
     <row r="318" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5512,7 +5569,7 @@
         <v>316</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>747</v>
+        <v>765</v>
       </c>
     </row>
     <row r="319" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5520,7 +5577,7 @@
         <v>317</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>748</v>
+        <v>766</v>
       </c>
     </row>
     <row r="320" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5528,7 +5585,7 @@
         <v>318</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>749</v>
+        <v>767</v>
       </c>
     </row>
     <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5536,7 +5593,7 @@
         <v>319</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>750</v>
+        <v>768</v>
       </c>
     </row>
     <row r="322" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5544,7 +5601,7 @@
         <v>320</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>751</v>
+        <v>769</v>
       </c>
     </row>
     <row r="323" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,7 +5609,7 @@
         <v>321</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>752</v>
+        <v>770</v>
       </c>
     </row>
     <row r="324" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5560,7 +5617,7 @@
         <v>322</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>753</v>
+        <v>771</v>
       </c>
     </row>
     <row r="325" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5568,7 +5625,7 @@
         <v>323</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
     </row>
     <row r="326" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5576,7 +5633,7 @@
         <v>324</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>755</v>
+        <v>773</v>
       </c>
     </row>
     <row r="327" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5584,7 +5641,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>756</v>
+        <v>774</v>
       </c>
     </row>
     <row r="328" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,7 +5649,7 @@
         <v>326</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>757</v>
+        <v>775</v>
       </c>
     </row>
     <row r="329" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5600,7 +5657,7 @@
         <v>327</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>758</v>
+        <v>776</v>
       </c>
     </row>
     <row r="330" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5608,7 +5665,7 @@
         <v>328</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
     </row>
     <row r="331" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5616,7 +5673,7 @@
         <v>329</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>760</v>
+        <v>778</v>
       </c>
     </row>
     <row r="332" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,7 +5681,7 @@
         <v>330</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>761</v>
+        <v>779</v>
       </c>
     </row>
     <row r="333" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5632,7 +5689,7 @@
         <v>331</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>762</v>
+        <v>780</v>
       </c>
     </row>
     <row r="334" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5640,7 +5697,7 @@
         <v>332</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>763</v>
+        <v>781</v>
       </c>
     </row>
     <row r="335" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5648,7 +5705,7 @@
         <v>333</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>764</v>
+        <v>782</v>
       </c>
     </row>
     <row r="336" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5656,7 +5713,7 @@
         <v>334</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>765</v>
+        <v>783</v>
       </c>
     </row>
     <row r="337" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5664,7 +5721,7 @@
         <v>335</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>766</v>
+        <v>784</v>
       </c>
     </row>
     <row r="338" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5672,7 +5729,7 @@
         <v>336</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>767</v>
+        <v>785</v>
       </c>
     </row>
     <row r="339" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5680,7 +5737,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>768</v>
+        <v>786</v>
       </c>
     </row>
     <row r="340" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5688,7 +5745,7 @@
         <v>338</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>769</v>
+        <v>787</v>
       </c>
     </row>
     <row r="341" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5753,7 @@
         <v>339</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>770</v>
+        <v>788</v>
       </c>
     </row>
     <row r="342" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5704,7 +5761,7 @@
         <v>340</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>771</v>
+        <v>789</v>
       </c>
     </row>
     <row r="343" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5712,7 +5769,7 @@
         <v>341</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="344" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5720,7 +5777,7 @@
         <v>342</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>772</v>
+        <v>790</v>
       </c>
     </row>
     <row r="345" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5728,7 +5785,7 @@
         <v>343</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="346" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5736,7 +5793,7 @@
         <v>344</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
     </row>
     <row r="347" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5744,7 +5801,7 @@
         <v>345</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>774</v>
+        <v>792</v>
       </c>
     </row>
     <row r="348" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5752,7 +5809,7 @@
         <v>346</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>775</v>
+        <v>793</v>
       </c>
     </row>
     <row r="349" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5760,7 +5817,7 @@
         <v>347</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>776</v>
+        <v>794</v>
       </c>
     </row>
     <row r="350" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5773,7 +5830,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>460</v>
+        <v>478</v>
       </c>
     </row>
     <row r="352" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5781,7 +5838,7 @@
         <v>350</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>777</v>
+        <v>795</v>
       </c>
     </row>
     <row r="353" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5789,7 +5846,7 @@
         <v>351</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>778</v>
+        <v>796</v>
       </c>
     </row>
     <row r="354" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5797,7 +5854,7 @@
         <v>352</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>779</v>
+        <v>797</v>
       </c>
     </row>
     <row r="355" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5805,7 +5862,7 @@
         <v>353</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>780</v>
+        <v>798</v>
       </c>
     </row>
     <row r="356" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5813,7 +5870,7 @@
         <v>354</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>781</v>
+        <v>799</v>
       </c>
     </row>
     <row r="357" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5821,7 +5878,7 @@
         <v>355</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>782</v>
+        <v>800</v>
       </c>
     </row>
     <row r="358" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5829,7 +5886,7 @@
         <v>356</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>783</v>
+        <v>801</v>
       </c>
     </row>
     <row r="359" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5894,7 @@
         <v>357</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>784</v>
+        <v>802</v>
       </c>
     </row>
     <row r="360" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5845,7 +5902,7 @@
         <v>358</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>785</v>
+        <v>803</v>
       </c>
     </row>
     <row r="361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5853,7 +5910,7 @@
         <v>359</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
     </row>
     <row r="362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5861,7 +5918,7 @@
         <v>360</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5869,7 +5926,7 @@
         <v>361</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>787</v>
+        <v>805</v>
       </c>
     </row>
     <row r="364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +5934,7 @@
         <v>362</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>707</v>
+        <v>725</v>
       </c>
     </row>
     <row r="365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5885,7 +5942,7 @@
         <v>363</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>788</v>
+        <v>806</v>
       </c>
     </row>
     <row r="366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5893,7 +5950,7 @@
         <v>364</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>789</v>
+        <v>807</v>
       </c>
     </row>
     <row r="367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5901,7 +5958,7 @@
         <v>365</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>729</v>
+        <v>747</v>
       </c>
     </row>
     <row r="368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,7 +5966,7 @@
         <v>366</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>790</v>
+        <v>808</v>
       </c>
     </row>
     <row r="369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5917,7 +5974,7 @@
         <v>367</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5925,7 +5982,7 @@
         <v>368</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>792</v>
+        <v>810</v>
       </c>
     </row>
     <row r="371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5933,7 +5990,7 @@
         <v>369</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>506</v>
+        <v>524</v>
       </c>
     </row>
     <row r="372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5941,7 +5998,7 @@
         <v>370</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>793</v>
+        <v>811</v>
       </c>
     </row>
     <row r="373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5949,7 +6006,7 @@
         <v>371</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>794</v>
+        <v>812</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5957,7 +6014,7 @@
         <v>372</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>795</v>
+        <v>813</v>
       </c>
     </row>
     <row r="375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,7 +6022,7 @@
         <v>373</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>796</v>
+        <v>814</v>
       </c>
     </row>
     <row r="376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5973,7 +6030,7 @@
         <v>374</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>797</v>
+        <v>815</v>
       </c>
     </row>
     <row r="377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5981,7 +6038,7 @@
         <v>375</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>798</v>
+        <v>816</v>
       </c>
     </row>
     <row r="378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5989,7 +6046,7 @@
         <v>376</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>799</v>
+        <v>817</v>
       </c>
     </row>
     <row r="379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5997,7 +6054,7 @@
         <v>377</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>800</v>
+        <v>818</v>
       </c>
     </row>
     <row r="380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6005,7 +6062,7 @@
         <v>378</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>801</v>
+        <v>819</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6013,7 +6070,7 @@
         <v>379</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>802</v>
+        <v>820</v>
       </c>
     </row>
     <row r="382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6021,7 +6078,7 @@
         <v>380</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>803</v>
+        <v>821</v>
       </c>
     </row>
     <row r="383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6029,7 +6086,7 @@
         <v>381</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>804</v>
+        <v>822</v>
       </c>
     </row>
     <row r="384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6037,7 +6094,7 @@
         <v>382</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>805</v>
+        <v>823</v>
       </c>
     </row>
     <row r="385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,7 +6102,7 @@
         <v>383</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>806</v>
+        <v>824</v>
       </c>
     </row>
     <row r="386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6053,12 +6110,15 @@
         <v>384</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>807</v>
+        <v>825</v>
       </c>
     </row>
     <row r="387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="1" t="n">
         <v>385</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>826</v>
       </c>
     </row>
   </sheetData>
@@ -6087,13 +6147,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>808</v>
+        <v>827</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>809</v>
+        <v>828</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6101,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>810</v>
+        <v>829</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6109,7 +6169,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>811</v>
+        <v>830</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>812</v>
+        <v>831</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6125,7 +6185,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>536</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,7 +6193,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>813</v>
+        <v>832</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6141,7 +6201,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>814</v>
+        <v>833</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6149,7 +6209,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6157,7 +6217,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6165,7 +6225,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>791</v>
+        <v>809</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6173,7 +6233,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>816</v>
+        <v>835</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6181,7 +6241,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6189,7 +6249,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>817</v>
+        <v>836</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6197,7 +6257,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>818</v>
+        <v>837</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6205,7 +6265,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>819</v>
+        <v>838</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6213,7 +6273,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>820</v>
+        <v>839</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6221,7 +6281,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>821</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6229,7 +6289,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>822</v>
+        <v>841</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6237,7 +6297,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>823</v>
+        <v>842</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6245,7 +6305,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>824</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6253,7 +6313,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>825</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6261,7 +6321,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>826</v>
+        <v>845</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6269,7 +6329,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>827</v>
+        <v>846</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6277,7 +6337,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>828</v>
+        <v>847</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6285,7 +6345,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>829</v>
+        <v>848</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6293,7 +6353,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>773</v>
+        <v>791</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6339,7 +6399,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>63</v>
@@ -6360,7 +6420,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>831</v>
+        <v>850</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6480,7 +6540,7 @@
         <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>830</v>
+        <v>849</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>63</v>
@@ -6501,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>832</v>
+        <v>851</v>
       </c>
     </row>
   </sheetData>
@@ -7870,10 +7930,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N416"/>
+  <dimension ref="A1:N436"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D28" activeCellId="0" sqref="D28"/>
+      <selection pane="topLeft" activeCell="D25" activeCellId="0" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -7985,6 +8045,9 @@
       <c r="C5" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="D5" s="1" t="n">
+        <v>72</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="L5" s="5"/>
     </row>
@@ -8014,6 +8077,9 @@
       <c r="C7" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="D7" s="1" t="n">
+        <v>73</v>
+      </c>
       <c r="E7" s="4"/>
       <c r="L7" s="5"/>
     </row>
@@ -8059,6 +8125,9 @@
       <c r="C10" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="D10" s="1" t="n">
+        <v>18</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="L10" s="5"/>
     </row>
@@ -8072,6 +8141,9 @@
       <c r="C11" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="D11" s="1" t="n">
+        <v>54</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="L11" s="5"/>
     </row>
@@ -8101,6 +8173,9 @@
       <c r="C13" s="1" t="n">
         <v>13</v>
       </c>
+      <c r="D13" s="1" t="n">
+        <v>64</v>
+      </c>
       <c r="E13" s="4"/>
       <c r="L13" s="5"/>
     </row>
@@ -8130,6 +8205,9 @@
       <c r="C15" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="D15" s="1" t="n">
+        <v>25</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="L15" s="5"/>
     </row>
@@ -8158,6 +8236,9 @@
       </c>
       <c r="C17" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="E17" s="4"/>
       <c r="L17" s="5"/>
@@ -12262,6 +12343,106 @@
       </c>
       <c r="B416" s="1" t="s">
         <v>452</v>
+      </c>
+    </row>
+    <row r="417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B417" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B418" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B419" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B420" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B421" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B422" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B430" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B431" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B432" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B433" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B434" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B435" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
   </sheetData>
